--- a/data/pca/factorExposure/factorExposure_2015-03-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02327548646707134</v>
+        <v>0.01249971824119334</v>
       </c>
       <c r="C2">
-        <v>0.02778012501400828</v>
+        <v>0.05442611751577378</v>
       </c>
       <c r="D2">
-        <v>0.1478451670405103</v>
+        <v>0.1161871442450249</v>
       </c>
       <c r="E2">
-        <v>0.06760204425957635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.05442530423238635</v>
+      </c>
+      <c r="F2">
+        <v>-0.03424632859433537</v>
+      </c>
+      <c r="G2">
+        <v>-0.1528725372675635</v>
+      </c>
+      <c r="H2">
+        <v>0.04901479718231917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04827887167379718</v>
+        <v>0.02356974641200294</v>
       </c>
       <c r="C4">
-        <v>0.07616320923473907</v>
+        <v>0.1132914549372346</v>
       </c>
       <c r="D4">
-        <v>0.1004638195665131</v>
+        <v>0.1094883748383162</v>
       </c>
       <c r="E4">
-        <v>0.1184503497815395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.05392735127263541</v>
+      </c>
+      <c r="F4">
+        <v>-0.09332661353008519</v>
+      </c>
+      <c r="G4">
+        <v>-0.02109295720249037</v>
+      </c>
+      <c r="H4">
+        <v>-0.07474352349908642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03046613534204215</v>
+        <v>0.03441075757767155</v>
       </c>
       <c r="C6">
-        <v>0.01710935247648874</v>
+        <v>0.03771631177972112</v>
       </c>
       <c r="D6">
-        <v>0.1062783656729669</v>
+        <v>0.09319158287414363</v>
       </c>
       <c r="E6">
-        <v>0.07594390722978873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0878049340757474</v>
+      </c>
+      <c r="F6">
+        <v>-0.04243672686407923</v>
+      </c>
+      <c r="G6">
+        <v>-0.001071991498207547</v>
+      </c>
+      <c r="H6">
+        <v>0.01132020263493933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0006076827357012717</v>
+        <v>0.007446505339083335</v>
       </c>
       <c r="C7">
-        <v>0.02574316836723616</v>
+        <v>0.04210002824446357</v>
       </c>
       <c r="D7">
-        <v>0.1030345386632282</v>
+        <v>0.09143427002184826</v>
       </c>
       <c r="E7">
-        <v>0.04530766247722076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.08118070673710145</v>
+      </c>
+      <c r="F7">
+        <v>-0.01470024411493547</v>
+      </c>
+      <c r="G7">
+        <v>0.009239055570488533</v>
+      </c>
+      <c r="H7">
+        <v>-0.02286806068155446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00125936945860675</v>
+        <v>-0.004880100556713145</v>
       </c>
       <c r="C8">
-        <v>0.02629703085444709</v>
+        <v>0.03762723478855695</v>
       </c>
       <c r="D8">
-        <v>0.07237618096022416</v>
+        <v>0.0587768054442971</v>
       </c>
       <c r="E8">
-        <v>0.05977980730008544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04844151599151259</v>
+      </c>
+      <c r="F8">
+        <v>-0.05110233924740384</v>
+      </c>
+      <c r="G8">
+        <v>-0.07434670632361973</v>
+      </c>
+      <c r="H8">
+        <v>-0.04882891907449689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03796990077054171</v>
+        <v>0.01700854642709032</v>
       </c>
       <c r="C9">
-        <v>0.06635587021393624</v>
+        <v>0.09307598771808231</v>
       </c>
       <c r="D9">
-        <v>0.1061277828063191</v>
+        <v>0.09716160931199941</v>
       </c>
       <c r="E9">
-        <v>0.09849902453695514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.04615586714161733</v>
+      </c>
+      <c r="F9">
+        <v>-0.06131540283658549</v>
+      </c>
+      <c r="G9">
+        <v>-0.00550317349855155</v>
+      </c>
+      <c r="H9">
+        <v>-0.02602436414647646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1941682930956697</v>
+        <v>0.2441590306208146</v>
       </c>
       <c r="C10">
-        <v>-0.1598869659180565</v>
+        <v>-0.09422503279167889</v>
       </c>
       <c r="D10">
-        <v>-0.0425200870892185</v>
+        <v>-0.01441075067632063</v>
       </c>
       <c r="E10">
-        <v>0.03175664552553898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02508999546558771</v>
+      </c>
+      <c r="F10">
+        <v>-0.04121242339563775</v>
+      </c>
+      <c r="G10">
+        <v>0.006706704744777057</v>
+      </c>
+      <c r="H10">
+        <v>-0.002110959737234594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01487977207591451</v>
+        <v>0.01073054865382376</v>
       </c>
       <c r="C11">
-        <v>0.04335247113046811</v>
+        <v>0.06146777733059022</v>
       </c>
       <c r="D11">
-        <v>0.04477806203959668</v>
+        <v>0.03718313925905609</v>
       </c>
       <c r="E11">
-        <v>-0.006175476965163931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.03738879623905338</v>
+      </c>
+      <c r="F11">
+        <v>0.01222548173052635</v>
+      </c>
+      <c r="G11">
+        <v>0.005222976748280851</v>
+      </c>
+      <c r="H11">
+        <v>-0.01855839249410403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01390216614814231</v>
+        <v>0.01091026136808086</v>
       </c>
       <c r="C12">
-        <v>0.04324362971790523</v>
+        <v>0.05212605663781555</v>
       </c>
       <c r="D12">
-        <v>0.06162665901637938</v>
+        <v>0.04508192524077403</v>
       </c>
       <c r="E12">
-        <v>0.01359326264638255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.03304262455954476</v>
+      </c>
+      <c r="F12">
+        <v>0.01352505455046716</v>
+      </c>
+      <c r="G12">
+        <v>0.01269400941319367</v>
+      </c>
+      <c r="H12">
+        <v>0.02066596028084444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00990707487276234</v>
+        <v>0.005245006825241322</v>
       </c>
       <c r="C13">
-        <v>0.02734857801685157</v>
+        <v>0.06016357807519115</v>
       </c>
       <c r="D13">
-        <v>0.128268118806419</v>
+        <v>0.1517032460441878</v>
       </c>
       <c r="E13">
-        <v>0.08369001791854522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.07938230821890237</v>
+      </c>
+      <c r="F13">
+        <v>-0.04029036488766652</v>
+      </c>
+      <c r="G13">
+        <v>-0.0656692713186009</v>
+      </c>
+      <c r="H13">
+        <v>0.0641344099553494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.007600270355298474</v>
+        <v>0.003825129702298955</v>
       </c>
       <c r="C14">
-        <v>0.0171136398035933</v>
+        <v>0.03503431889472143</v>
       </c>
       <c r="D14">
-        <v>0.07581062860917803</v>
+        <v>0.08874637637774029</v>
       </c>
       <c r="E14">
-        <v>0.03930075946905444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0865528565022838</v>
+      </c>
+      <c r="F14">
+        <v>-0.03201371774961573</v>
+      </c>
+      <c r="G14">
+        <v>-0.02214818554883542</v>
+      </c>
+      <c r="H14">
+        <v>0.02974144903824803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003222764156090692</v>
+        <v>-0.003284612762903108</v>
       </c>
       <c r="C15">
-        <v>0.01307414203377557</v>
+        <v>0.03117433151341474</v>
       </c>
       <c r="D15">
-        <v>0.04657693459792783</v>
+        <v>0.05930813151531349</v>
       </c>
       <c r="E15">
-        <v>0.01547547239189219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.03889890233438797</v>
+      </c>
+      <c r="F15">
+        <v>-0.009390806486643224</v>
+      </c>
+      <c r="G15">
+        <v>-0.02656201481242101</v>
+      </c>
+      <c r="H15">
+        <v>-0.01616903541941586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01444196745438927</v>
+        <v>0.01023554831498023</v>
       </c>
       <c r="C16">
-        <v>0.03996000939238553</v>
+        <v>0.05359851696561858</v>
       </c>
       <c r="D16">
-        <v>0.04959685477264342</v>
+        <v>0.04019588535199381</v>
       </c>
       <c r="E16">
-        <v>0.006290780854089733</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.03905493758002187</v>
+      </c>
+      <c r="F16">
+        <v>0.00669556857999287</v>
+      </c>
+      <c r="G16">
+        <v>0.01474179526651686</v>
+      </c>
+      <c r="H16">
+        <v>-0.005139616862000532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003128958807396093</v>
+        <v>-0.0007201579008664375</v>
       </c>
       <c r="C19">
-        <v>0.02206036671003661</v>
+        <v>0.01821066800847839</v>
       </c>
       <c r="D19">
-        <v>0.07057867163934198</v>
+        <v>0.038867982553518</v>
       </c>
       <c r="E19">
-        <v>0.03963767158538929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.001710684654182277</v>
+      </c>
+      <c r="F19">
+        <v>-0.004184748710264157</v>
+      </c>
+      <c r="G19">
+        <v>-0.02037479270409114</v>
+      </c>
+      <c r="H19">
+        <v>0.01658736557865613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003615800148530554</v>
+        <v>0.006144016160955126</v>
       </c>
       <c r="C20">
-        <v>0.02594249190303003</v>
+        <v>0.04461266317272171</v>
       </c>
       <c r="D20">
-        <v>0.06776536298055953</v>
+        <v>0.07666503690208497</v>
       </c>
       <c r="E20">
-        <v>0.05678209147309753</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.04898661451101984</v>
+      </c>
+      <c r="F20">
+        <v>-0.02751468687275346</v>
+      </c>
+      <c r="G20">
+        <v>0.01183927978312128</v>
+      </c>
+      <c r="H20">
+        <v>-0.02784507598656611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006175856189882365</v>
+        <v>0.004187106747894799</v>
       </c>
       <c r="C21">
-        <v>0.02842618198277606</v>
+        <v>0.04660089849255176</v>
       </c>
       <c r="D21">
-        <v>0.1135299310363773</v>
+        <v>0.1139817599727767</v>
       </c>
       <c r="E21">
-        <v>0.1251311286124404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.06380729189073676</v>
+      </c>
+      <c r="F21">
+        <v>-0.0963765388232749</v>
+      </c>
+      <c r="G21">
+        <v>-0.08064737046255203</v>
+      </c>
+      <c r="H21">
+        <v>0.07921361239494427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004400835395201019</v>
+        <v>-0.006349617247852184</v>
       </c>
       <c r="C22">
-        <v>0.05316576752698814</v>
+        <v>0.08399699234401653</v>
       </c>
       <c r="D22">
-        <v>0.2105760436294403</v>
+        <v>0.2144397672885168</v>
       </c>
       <c r="E22">
-        <v>0.09944250823828574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05244405444374316</v>
+      </c>
+      <c r="F22">
+        <v>-0.03700272089008588</v>
+      </c>
+      <c r="G22">
+        <v>-0.2418934156484707</v>
+      </c>
+      <c r="H22">
+        <v>-0.1454708050806101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004927309479029835</v>
+        <v>-0.00325195024678468</v>
       </c>
       <c r="C23">
-        <v>0.05338873333578648</v>
+        <v>0.08572434909401043</v>
       </c>
       <c r="D23">
-        <v>0.2093145944756979</v>
+        <v>0.2179245368791438</v>
       </c>
       <c r="E23">
-        <v>0.09947253024449464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04921148471992109</v>
+      </c>
+      <c r="F23">
+        <v>-0.04018130732170733</v>
+      </c>
+      <c r="G23">
+        <v>-0.2358984858678434</v>
+      </c>
+      <c r="H23">
+        <v>-0.1388800730209101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0200846553187352</v>
+        <v>0.01161895730159445</v>
       </c>
       <c r="C24">
-        <v>0.06168544784853244</v>
+        <v>0.07138500601572086</v>
       </c>
       <c r="D24">
-        <v>0.06502552217236175</v>
+        <v>0.04232912182405051</v>
       </c>
       <c r="E24">
-        <v>0.01239181886382442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.04729344419788892</v>
+      </c>
+      <c r="F24">
+        <v>0.005926983084700497</v>
+      </c>
+      <c r="G24">
+        <v>-0.002936867550287619</v>
+      </c>
+      <c r="H24">
+        <v>-0.009904009105495224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02092434297778378</v>
+        <v>0.01621217413127689</v>
       </c>
       <c r="C25">
-        <v>0.0537826523666191</v>
+        <v>0.06612678783781673</v>
       </c>
       <c r="D25">
-        <v>0.05577002517078718</v>
+        <v>0.04493499510421697</v>
       </c>
       <c r="E25">
-        <v>0.01536658851795185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03111946773270983</v>
+      </c>
+      <c r="F25">
+        <v>0.0054442027257738</v>
+      </c>
+      <c r="G25">
+        <v>0.01171705911366453</v>
+      </c>
+      <c r="H25">
+        <v>-0.005182936315339333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007991718900182469</v>
+        <v>0.01705762771338071</v>
       </c>
       <c r="C26">
-        <v>0.01741706762616303</v>
+        <v>0.03165210212628451</v>
       </c>
       <c r="D26">
-        <v>0.05896166844440591</v>
+        <v>0.05251469041521467</v>
       </c>
       <c r="E26">
-        <v>0.0413991032080294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.06031617047936753</v>
+      </c>
+      <c r="F26">
+        <v>-0.04616605977565372</v>
+      </c>
+      <c r="G26">
+        <v>-0.02919670122787392</v>
+      </c>
+      <c r="H26">
+        <v>-0.002192695719176086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2754055480910625</v>
+        <v>0.3128794300373166</v>
       </c>
       <c r="C28">
-        <v>-0.176062100064087</v>
+        <v>-0.0944163483505823</v>
       </c>
       <c r="D28">
-        <v>-0.01387592623171603</v>
+        <v>-0.0175606990958896</v>
       </c>
       <c r="E28">
-        <v>0.0343940751851017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05436769939240024</v>
+      </c>
+      <c r="F28">
+        <v>-0.04585050724265236</v>
+      </c>
+      <c r="G28">
+        <v>-0.06263350041554619</v>
+      </c>
+      <c r="H28">
+        <v>-0.0266013196145009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003172411207119677</v>
+        <v>0.00236021338293068</v>
       </c>
       <c r="C29">
-        <v>0.02088850952322912</v>
+        <v>0.04150545034117192</v>
       </c>
       <c r="D29">
-        <v>0.07163960944937776</v>
+        <v>0.09405661398431465</v>
       </c>
       <c r="E29">
-        <v>0.04720304108166094</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.09970977425093763</v>
+      </c>
+      <c r="F29">
+        <v>-0.03820160574080158</v>
+      </c>
+      <c r="G29">
+        <v>-0.01771755576691299</v>
+      </c>
+      <c r="H29">
+        <v>0.03831644706416693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02934976164657008</v>
+        <v>0.01877264648221314</v>
       </c>
       <c r="C30">
-        <v>0.07114703680067772</v>
+        <v>0.09918587075904289</v>
       </c>
       <c r="D30">
-        <v>0.1455914106150017</v>
+        <v>0.1138450796792485</v>
       </c>
       <c r="E30">
-        <v>0.06680938722947816</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.08760579926138</v>
+      </c>
+      <c r="F30">
+        <v>-0.01663012991076907</v>
+      </c>
+      <c r="G30">
+        <v>-0.01914060150898973</v>
+      </c>
+      <c r="H30">
+        <v>-0.04650430561763402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03486400541672598</v>
+        <v>0.01156533011752807</v>
       </c>
       <c r="C31">
-        <v>0.08471145906366466</v>
+        <v>0.09491779435793318</v>
       </c>
       <c r="D31">
-        <v>0.05386901590482564</v>
+        <v>0.03059870398969786</v>
       </c>
       <c r="E31">
-        <v>0.02686594351424969</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0246344995331156</v>
+      </c>
+      <c r="F31">
+        <v>-0.01642697851756215</v>
+      </c>
+      <c r="G31">
+        <v>-0.01610984037382027</v>
+      </c>
+      <c r="H31">
+        <v>-0.009097614018984455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01531089628186095</v>
+        <v>0.01374180626778852</v>
       </c>
       <c r="C32">
-        <v>0.04164727284631018</v>
+        <v>0.05036991529757201</v>
       </c>
       <c r="D32">
-        <v>0.08264229962702595</v>
+        <v>0.0747584197893892</v>
       </c>
       <c r="E32">
-        <v>0.0747595929433915</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01176040905149421</v>
+      </c>
+      <c r="F32">
+        <v>-0.0481516428269058</v>
+      </c>
+      <c r="G32">
+        <v>-0.03331316781996189</v>
+      </c>
+      <c r="H32">
+        <v>0.01880684163947294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007006826750946047</v>
+        <v>0.008644003911677692</v>
       </c>
       <c r="C33">
-        <v>0.04141094169324572</v>
+        <v>0.06432153475683804</v>
       </c>
       <c r="D33">
-        <v>0.1054198434233442</v>
+        <v>0.1064573584471109</v>
       </c>
       <c r="E33">
-        <v>0.0692653589795548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.06082507015907544</v>
+      </c>
+      <c r="F33">
+        <v>-0.0309697797218998</v>
+      </c>
+      <c r="G33">
+        <v>-0.01421300546009605</v>
+      </c>
+      <c r="H33">
+        <v>-0.002670987111978518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01712832840064418</v>
+        <v>0.01015166561942174</v>
       </c>
       <c r="C34">
-        <v>0.062571698155562</v>
+        <v>0.06400401295495164</v>
       </c>
       <c r="D34">
-        <v>0.05938902089876526</v>
+        <v>0.0226636417758483</v>
       </c>
       <c r="E34">
-        <v>-0.03287683655765106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03637360064160626</v>
+      </c>
+      <c r="F34">
+        <v>0.04002964719074469</v>
+      </c>
+      <c r="G34">
+        <v>-0.003806948427915491</v>
+      </c>
+      <c r="H34">
+        <v>0.003912650234552107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-7.439119170895576e-05</v>
+        <v>0.003982667681476486</v>
       </c>
       <c r="C35">
-        <v>1.248415375400927e-05</v>
+        <v>0.01517905906728097</v>
       </c>
       <c r="D35">
-        <v>-0.00053284599578995</v>
+        <v>0.03413570932028692</v>
       </c>
       <c r="E35">
-        <v>-0.0005103918451667394</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.02092738625540601</v>
+      </c>
+      <c r="F35">
+        <v>-0.01848242969378708</v>
+      </c>
+      <c r="G35">
+        <v>0.0007776058552605705</v>
+      </c>
+      <c r="H35">
+        <v>0.005970754989849327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009830424553726163</v>
+        <v>0.01196481714055709</v>
       </c>
       <c r="C36">
-        <v>0.007753947568475446</v>
+        <v>0.02467790082506941</v>
       </c>
       <c r="D36">
-        <v>0.05940418664084683</v>
+        <v>0.06236963535488772</v>
       </c>
       <c r="E36">
-        <v>0.06238702840292621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.05041647877415178</v>
+      </c>
+      <c r="F36">
+        <v>-0.04952887726274213</v>
+      </c>
+      <c r="G36">
+        <v>-0.01780165792204885</v>
+      </c>
+      <c r="H36">
+        <v>-0.003798722930868549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005883481746880559</v>
+        <v>0.01142464007845763</v>
       </c>
       <c r="C38">
-        <v>0.008326172041548958</v>
+        <v>0.02842318636526377</v>
       </c>
       <c r="D38">
-        <v>0.08837173713745562</v>
+        <v>0.08800228668990902</v>
       </c>
       <c r="E38">
-        <v>0.03960872089213908</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.03584707986215942</v>
+      </c>
+      <c r="F38">
+        <v>-0.009541277467615458</v>
+      </c>
+      <c r="G38">
+        <v>-0.03541709848422577</v>
+      </c>
+      <c r="H38">
+        <v>-0.040474274628965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01399418187872876</v>
+        <v>0.006967348253657515</v>
       </c>
       <c r="C39">
-        <v>0.06305168648187912</v>
+        <v>0.08865746687652867</v>
       </c>
       <c r="D39">
-        <v>0.1075259802992966</v>
+        <v>0.08384464448836952</v>
       </c>
       <c r="E39">
-        <v>0.02879656764209434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.08345919616182979</v>
+      </c>
+      <c r="F39">
+        <v>0.005593696231697081</v>
+      </c>
+      <c r="G39">
+        <v>-0.001897329146295917</v>
+      </c>
+      <c r="H39">
+        <v>-0.00685613903265981</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01811283037196398</v>
+        <v>0.01421453708671746</v>
       </c>
       <c r="C40">
-        <v>0.02572410836429952</v>
+        <v>0.04384237121184803</v>
       </c>
       <c r="D40">
-        <v>0.1211445190709419</v>
+        <v>0.08502859710043066</v>
       </c>
       <c r="E40">
-        <v>0.02287489705712355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.07444592721648814</v>
+      </c>
+      <c r="F40">
+        <v>0.02890522984896509</v>
+      </c>
+      <c r="G40">
+        <v>-0.08848711756254603</v>
+      </c>
+      <c r="H40">
+        <v>0.01923230555628288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01103825355579371</v>
+        <v>0.01885372319829608</v>
       </c>
       <c r="C41">
-        <v>0.00533883200303386</v>
+        <v>0.02388113162603989</v>
       </c>
       <c r="D41">
-        <v>0.03134500707239382</v>
+        <v>0.04180038446176095</v>
       </c>
       <c r="E41">
-        <v>0.03081149193149402</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01377354769917747</v>
+      </c>
+      <c r="F41">
+        <v>-0.02082677817492184</v>
+      </c>
+      <c r="G41">
+        <v>-0.01041449932418971</v>
+      </c>
+      <c r="H41">
+        <v>-0.005210763586240543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001204706236510418</v>
+        <v>0.009961828863065977</v>
       </c>
       <c r="C43">
-        <v>0.001598940292897833</v>
+        <v>0.01693315889737089</v>
       </c>
       <c r="D43">
-        <v>0.04516300631534097</v>
+        <v>0.05070500491015883</v>
       </c>
       <c r="E43">
-        <v>0.0344652330839189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02735664314045246</v>
+      </c>
+      <c r="F43">
+        <v>-0.02363099008681923</v>
+      </c>
+      <c r="G43">
+        <v>-0.0051008889367809</v>
+      </c>
+      <c r="H43">
+        <v>-0.01872587981500239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02036403521002855</v>
+        <v>0.01121656886133419</v>
       </c>
       <c r="C44">
-        <v>0.02670713003965497</v>
+        <v>0.05188920166654629</v>
       </c>
       <c r="D44">
-        <v>0.09207153861899692</v>
+        <v>0.09630346995907862</v>
       </c>
       <c r="E44">
-        <v>0.08276560443574807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0713198102720238</v>
+      </c>
+      <c r="F44">
+        <v>-0.03796168687229311</v>
+      </c>
+      <c r="G44">
+        <v>-0.04294808197162502</v>
+      </c>
+      <c r="H44">
+        <v>-0.02808768733979164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.002479988563902706</v>
+        <v>-0.001398601667923001</v>
       </c>
       <c r="C46">
-        <v>0.0307541428574906</v>
+        <v>0.04330674580462034</v>
       </c>
       <c r="D46">
-        <v>0.07821548221145695</v>
+        <v>0.06721907192231584</v>
       </c>
       <c r="E46">
-        <v>0.04486771821807542</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.07470140756396042</v>
+      </c>
+      <c r="F46">
+        <v>-0.03409167629886063</v>
+      </c>
+      <c r="G46">
+        <v>-0.02556622595067552</v>
+      </c>
+      <c r="H46">
+        <v>-0.002149480228170638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06996513667707906</v>
+        <v>0.0320565637769092</v>
       </c>
       <c r="C47">
-        <v>0.1137894084423555</v>
+        <v>0.1254438380484396</v>
       </c>
       <c r="D47">
-        <v>0.05955473340597675</v>
+        <v>0.02372550792135667</v>
       </c>
       <c r="E47">
-        <v>0.03091627386533653</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.001523956096587382</v>
+      </c>
+      <c r="F47">
+        <v>0.003634998258613263</v>
+      </c>
+      <c r="G47">
+        <v>0.02171534906958224</v>
+      </c>
+      <c r="H47">
+        <v>-0.01125320589261638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009821341162784589</v>
+        <v>0.0146451789443344</v>
       </c>
       <c r="C48">
-        <v>0.01778322213262376</v>
+        <v>0.03524256046792833</v>
       </c>
       <c r="D48">
-        <v>0.06495315067256363</v>
+        <v>0.06858430466966492</v>
       </c>
       <c r="E48">
-        <v>0.06749703583164107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.04570044506135436</v>
+      </c>
+      <c r="F48">
+        <v>-0.05673637196348281</v>
+      </c>
+      <c r="G48">
+        <v>-0.02627086811696455</v>
+      </c>
+      <c r="H48">
+        <v>-0.01328941720564377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002116930151444053</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.000469215806504183</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0004761425197353987</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.001254019086058602</v>
+      </c>
+      <c r="F49">
+        <v>-0.001081218376579364</v>
+      </c>
+      <c r="G49">
+        <v>1.069814865330461e-05</v>
+      </c>
+      <c r="H49">
+        <v>0.002614672232946729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03157902727199238</v>
+        <v>0.01502162845411757</v>
       </c>
       <c r="C50">
-        <v>0.05789749522935805</v>
+        <v>0.07588325216798963</v>
       </c>
       <c r="D50">
-        <v>0.05988757322122674</v>
+        <v>0.04494704329395917</v>
       </c>
       <c r="E50">
-        <v>0.02087442323626236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02819626364048931</v>
+      </c>
+      <c r="F50">
+        <v>-0.009419202239616377</v>
+      </c>
+      <c r="G50">
+        <v>-0.01378934792378545</v>
+      </c>
+      <c r="H50">
+        <v>-0.02220175441937486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004432989256975438</v>
+        <v>-0.004039014428422867</v>
       </c>
       <c r="C51">
-        <v>0.006410266574726412</v>
+        <v>0.01954323083553365</v>
       </c>
       <c r="D51">
-        <v>0.06217030733099224</v>
+        <v>0.04641732484316576</v>
       </c>
       <c r="E51">
-        <v>0.03545503457348979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.05347823082695238</v>
+      </c>
+      <c r="F51">
+        <v>-0.03611453977271508</v>
+      </c>
+      <c r="G51">
+        <v>-0.04871113530580019</v>
+      </c>
+      <c r="H51">
+        <v>-0.001664417150154669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1047937619754469</v>
+        <v>0.06043437816080777</v>
       </c>
       <c r="C53">
-        <v>0.1345844375161118</v>
+        <v>0.1624491171070004</v>
       </c>
       <c r="D53">
-        <v>-0.006073872163806041</v>
+        <v>-0.02198846003698795</v>
       </c>
       <c r="E53">
-        <v>0.03680025366981498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03098496253207026</v>
+      </c>
+      <c r="F53">
+        <v>-0.04055635724201725</v>
+      </c>
+      <c r="G53">
+        <v>-0.007178019480465245</v>
+      </c>
+      <c r="H53">
+        <v>-0.0118492244668342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.008595653081013179</v>
+        <v>0.01212318145269034</v>
       </c>
       <c r="C54">
-        <v>0.02359180901427175</v>
+        <v>0.04213802410138526</v>
       </c>
       <c r="D54">
-        <v>0.09157998114187178</v>
+        <v>0.07551379328521832</v>
       </c>
       <c r="E54">
-        <v>0.0330655700646658</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0440032416566916</v>
+      </c>
+      <c r="F54">
+        <v>-0.006276358148613425</v>
+      </c>
+      <c r="G54">
+        <v>-0.02530773266222194</v>
+      </c>
+      <c r="H54">
+        <v>-0.02661038671022038</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08654882735700817</v>
+        <v>0.04267091266725265</v>
       </c>
       <c r="C55">
-        <v>0.1126750874151997</v>
+        <v>0.1273240978548016</v>
       </c>
       <c r="D55">
-        <v>0.0002462284118614518</v>
+        <v>-0.04494741280445518</v>
       </c>
       <c r="E55">
-        <v>-0.005371538921527979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.008166329150757703</v>
+      </c>
+      <c r="F55">
+        <v>-0.00269030131253997</v>
+      </c>
+      <c r="G55">
+        <v>-0.01513091542608901</v>
+      </c>
+      <c r="H55">
+        <v>0.002925836423402675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1280899399294698</v>
+        <v>0.06187524957875419</v>
       </c>
       <c r="C56">
-        <v>0.156255621993487</v>
+        <v>0.1907346582850308</v>
       </c>
       <c r="D56">
-        <v>0.01915329139961147</v>
+        <v>-0.04067504846329051</v>
       </c>
       <c r="E56">
-        <v>-0.008207798967223824</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0351624622310586</v>
+      </c>
+      <c r="F56">
+        <v>-0.002477820644427496</v>
+      </c>
+      <c r="G56">
+        <v>-0.06460745243918875</v>
+      </c>
+      <c r="H56">
+        <v>-0.0154072401071303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00160175129640518</v>
+        <v>0.008714689799241742</v>
       </c>
       <c r="C58">
-        <v>0.01676034115197934</v>
+        <v>0.06721301465124006</v>
       </c>
       <c r="D58">
-        <v>0.212835169178942</v>
+        <v>0.2633921938629589</v>
       </c>
       <c r="E58">
-        <v>0.1839037663582481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.07776803811120986</v>
+      </c>
+      <c r="F58">
+        <v>-0.1409659454980688</v>
+      </c>
+      <c r="G58">
+        <v>-0.1518856081044723</v>
+      </c>
+      <c r="H58">
+        <v>-0.1092863432345673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1994430040097366</v>
+        <v>0.2582120339432739</v>
       </c>
       <c r="C59">
-        <v>-0.1275146698109299</v>
+        <v>-0.05824446903415834</v>
       </c>
       <c r="D59">
-        <v>0.04760598173327819</v>
+        <v>0.04372635848602221</v>
       </c>
       <c r="E59">
-        <v>0.04295755916702754</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01498769109597661</v>
+      </c>
+      <c r="F59">
+        <v>-0.01863326798318262</v>
+      </c>
+      <c r="G59">
+        <v>-0.02797709726526324</v>
+      </c>
+      <c r="H59">
+        <v>0.02851201041580561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.178084434718158</v>
+        <v>0.1536746738624648</v>
       </c>
       <c r="C60">
-        <v>0.1043521713391678</v>
+        <v>0.1636091631984574</v>
       </c>
       <c r="D60">
-        <v>0.1251961595669419</v>
+        <v>0.04040611271773512</v>
       </c>
       <c r="E60">
-        <v>-0.06319130371860818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1143697771547454</v>
+      </c>
+      <c r="F60">
+        <v>0.1877797447934659</v>
+      </c>
+      <c r="G60">
+        <v>0.2494406893269059</v>
+      </c>
+      <c r="H60">
+        <v>0.1512129935877099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02471588656293888</v>
+        <v>0.0147501316734954</v>
       </c>
       <c r="C61">
-        <v>0.05896633204657607</v>
+        <v>0.08266912616976153</v>
       </c>
       <c r="D61">
-        <v>0.08092989896203068</v>
+        <v>0.06103378729937494</v>
       </c>
       <c r="E61">
-        <v>0.011681273416996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.05869995001985</v>
+      </c>
+      <c r="F61">
+        <v>0.01385787927508252</v>
+      </c>
+      <c r="G61">
+        <v>0.003431512862158898</v>
+      </c>
+      <c r="H61">
+        <v>0.001156670088934982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01131900383794868</v>
+        <v>0.0158170716726225</v>
       </c>
       <c r="C63">
-        <v>0.02617608149912263</v>
+        <v>0.04545934693303563</v>
       </c>
       <c r="D63">
-        <v>0.07602247129256044</v>
+        <v>0.05051774147838619</v>
       </c>
       <c r="E63">
-        <v>0.03808986304799871</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.07898523215438719</v>
+      </c>
+      <c r="F63">
+        <v>-0.02339386799910535</v>
+      </c>
+      <c r="G63">
+        <v>-0.009650171742915775</v>
+      </c>
+      <c r="H63">
+        <v>-0.009844308052098289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04886733937951927</v>
+        <v>0.01699552638138696</v>
       </c>
       <c r="C64">
-        <v>0.09232804675427901</v>
+        <v>0.1053392034165747</v>
       </c>
       <c r="D64">
-        <v>0.02834028229179416</v>
+        <v>0.01523378087738657</v>
       </c>
       <c r="E64">
-        <v>0.03027571479255613</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.03890302660956745</v>
+      </c>
+      <c r="F64">
+        <v>-0.02040488619253551</v>
+      </c>
+      <c r="G64">
+        <v>0.02545798143869193</v>
+      </c>
+      <c r="H64">
+        <v>-0.0213425859322699</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02696677819800794</v>
+        <v>0.0265881006203891</v>
       </c>
       <c r="C65">
-        <v>0.0180146718342382</v>
+        <v>0.04475231415574053</v>
       </c>
       <c r="D65">
-        <v>0.09222458444030872</v>
+        <v>0.0938685750552871</v>
       </c>
       <c r="E65">
-        <v>0.03727632599760128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.06700794500449012</v>
+      </c>
+      <c r="F65">
+        <v>0.008170029840450616</v>
+      </c>
+      <c r="G65">
+        <v>0.04910591045148196</v>
+      </c>
+      <c r="H65">
+        <v>-0.0218986016501076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02089340310715784</v>
+        <v>0.00803936171030206</v>
       </c>
       <c r="C66">
-        <v>0.07488596702073044</v>
+        <v>0.1093945650872414</v>
       </c>
       <c r="D66">
-        <v>0.1273120737110567</v>
+        <v>0.1077734500734253</v>
       </c>
       <c r="E66">
-        <v>0.03118898516736884</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.07880113703226253</v>
+      </c>
+      <c r="F66">
+        <v>0.006420195103672049</v>
+      </c>
+      <c r="G66">
+        <v>-0.02179589047261569</v>
+      </c>
+      <c r="H66">
+        <v>-0.01508026374555784</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01948814501531858</v>
+        <v>0.02054628161074016</v>
       </c>
       <c r="C67">
-        <v>0.02041152733907291</v>
+        <v>0.0363161097109149</v>
       </c>
       <c r="D67">
-        <v>0.05583874187909355</v>
+        <v>0.04886439195694251</v>
       </c>
       <c r="E67">
-        <v>0.002432142825423892</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0318005077425466</v>
+      </c>
+      <c r="F67">
+        <v>0.02011970419572802</v>
+      </c>
+      <c r="G67">
+        <v>-0.0109042479524122</v>
+      </c>
+      <c r="H67">
+        <v>-0.02520218487055951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2126450756564798</v>
+        <v>0.2788064149041023</v>
       </c>
       <c r="C68">
-        <v>-0.13957628722128</v>
+        <v>-0.07090718051954747</v>
       </c>
       <c r="D68">
-        <v>0.01927580514084064</v>
+        <v>0.02869921312863022</v>
       </c>
       <c r="E68">
-        <v>0.02605170172481587</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003694990085207826</v>
+      </c>
+      <c r="F68">
+        <v>-0.02647088868434133</v>
+      </c>
+      <c r="G68">
+        <v>-0.05394174988977767</v>
+      </c>
+      <c r="H68">
+        <v>-0.007949828468449872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05088039899586365</v>
+        <v>0.01595008125892067</v>
       </c>
       <c r="C69">
-        <v>0.1184848804903914</v>
+        <v>0.1132590460016085</v>
       </c>
       <c r="D69">
-        <v>0.07895344985875313</v>
+        <v>0.01988987652246596</v>
       </c>
       <c r="E69">
-        <v>0.02858506744685236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01429226802807253</v>
+      </c>
+      <c r="F69">
+        <v>0.01497257485401056</v>
+      </c>
+      <c r="G69">
+        <v>0.01306790170079668</v>
+      </c>
+      <c r="H69">
+        <v>0.004803838829535887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.230363275748045</v>
+        <v>0.2716236789601193</v>
       </c>
       <c r="C71">
-        <v>-0.1621397447971621</v>
+        <v>-0.08682102885135791</v>
       </c>
       <c r="D71">
-        <v>0.01283648144481559</v>
+        <v>0.006694042323531155</v>
       </c>
       <c r="E71">
-        <v>0.005650887197104308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007057691346328777</v>
+      </c>
+      <c r="F71">
+        <v>-0.01275368767710614</v>
+      </c>
+      <c r="G71">
+        <v>-0.04183396230928312</v>
+      </c>
+      <c r="H71">
+        <v>-0.02581054801267938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09856898867215022</v>
+        <v>0.06486456815001576</v>
       </c>
       <c r="C72">
-        <v>0.07684772436209958</v>
+        <v>0.1243367401889361</v>
       </c>
       <c r="D72">
-        <v>0.1091894928518612</v>
+        <v>0.05065880424495828</v>
       </c>
       <c r="E72">
-        <v>0.02116057812690953</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.08305352265077891</v>
+      </c>
+      <c r="F72">
+        <v>0.01951716309898831</v>
+      </c>
+      <c r="G72">
+        <v>0.03501311820081463</v>
+      </c>
+      <c r="H72">
+        <v>0.006762745241496356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1693818766880858</v>
+        <v>0.1571758535540083</v>
       </c>
       <c r="C73">
-        <v>0.080958253287661</v>
+        <v>0.162061471093855</v>
       </c>
       <c r="D73">
-        <v>0.194403433923545</v>
+        <v>0.05958171377711904</v>
       </c>
       <c r="E73">
-        <v>-0.1116515024420967</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2917854933573267</v>
+      </c>
+      <c r="F73">
+        <v>0.2808558484387795</v>
+      </c>
+      <c r="G73">
+        <v>0.4053099677329168</v>
+      </c>
+      <c r="H73">
+        <v>0.1533692627858666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0961600134106959</v>
+        <v>0.05159664810930109</v>
       </c>
       <c r="C74">
-        <v>0.1203001502547613</v>
+        <v>0.1407447501579567</v>
       </c>
       <c r="D74">
-        <v>-0.04991201174719637</v>
+        <v>-0.05053657670636698</v>
       </c>
       <c r="E74">
-        <v>0.01243001361687661</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.02859771741060788</v>
+      </c>
+      <c r="F74">
+        <v>-0.03118961727657745</v>
+      </c>
+      <c r="G74">
+        <v>0.008374549205284659</v>
+      </c>
+      <c r="H74">
+        <v>-0.0009054120719366377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2130028074392433</v>
+        <v>0.1003842931915735</v>
       </c>
       <c r="C75">
-        <v>0.2144930742356368</v>
+        <v>0.2609454667644273</v>
       </c>
       <c r="D75">
-        <v>-0.05724472000867373</v>
+        <v>-0.1217257438831724</v>
       </c>
       <c r="E75">
-        <v>-0.08949693139812111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1177603613234638</v>
+      </c>
+      <c r="F75">
+        <v>0.0539036067052452</v>
+      </c>
+      <c r="G75">
+        <v>-0.0982930999783478</v>
+      </c>
+      <c r="H75">
+        <v>-0.08938099251140968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1265918988308693</v>
+        <v>0.06019251767716501</v>
       </c>
       <c r="C76">
-        <v>0.1436244922746842</v>
+        <v>0.1754425705319929</v>
       </c>
       <c r="D76">
-        <v>-0.001196404953992483</v>
+        <v>-0.05344841976928809</v>
       </c>
       <c r="E76">
-        <v>-0.01721068231343672</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03896395425269643</v>
+      </c>
+      <c r="F76">
+        <v>0.004770363930194969</v>
+      </c>
+      <c r="G76">
+        <v>-0.04200197811293364</v>
+      </c>
+      <c r="H76">
+        <v>-0.02369032025247475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01644950983240069</v>
+        <v>0.002878928655162239</v>
       </c>
       <c r="C77">
-        <v>0.07843076826317544</v>
+        <v>0.1203663699514463</v>
       </c>
       <c r="D77">
-        <v>0.2104324650837287</v>
+        <v>0.5003251746502817</v>
       </c>
       <c r="E77">
-        <v>0.1626707219863586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7647700730160758</v>
+      </c>
+      <c r="F77">
+        <v>0.1750627376079687</v>
+      </c>
+      <c r="G77">
+        <v>0.2190669000628105</v>
+      </c>
+      <c r="H77">
+        <v>0.02337068550229667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03360062638815267</v>
+        <v>0.02312906122703159</v>
       </c>
       <c r="C78">
-        <v>0.07264481625806768</v>
+        <v>0.09475140508084336</v>
       </c>
       <c r="D78">
-        <v>0.1477004831864643</v>
+        <v>0.08484221397724091</v>
       </c>
       <c r="E78">
-        <v>0.09860373885022064</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08130807806139673</v>
+      </c>
+      <c r="F78">
+        <v>-0.04567707437206678</v>
+      </c>
+      <c r="G78">
+        <v>-0.09293313397917367</v>
+      </c>
+      <c r="H78">
+        <v>0.02409192601240623</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1066465074715411</v>
+        <v>0.0512317431382634</v>
       </c>
       <c r="C79">
-        <v>0.2100344951951725</v>
+        <v>0.213611508139535</v>
       </c>
       <c r="D79">
-        <v>-0.5149965401852566</v>
+        <v>-0.1413961394260857</v>
       </c>
       <c r="E79">
-        <v>0.7373395979894701</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1030640502986792</v>
+      </c>
+      <c r="F79">
+        <v>-0.794502396346688</v>
+      </c>
+      <c r="G79">
+        <v>0.4086599119750372</v>
+      </c>
+      <c r="H79">
+        <v>0.05811855816500813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002685746859295998</v>
+        <v>0.007469341507062439</v>
       </c>
       <c r="C80">
-        <v>0.04682016447494972</v>
+        <v>0.04633890979005757</v>
       </c>
       <c r="D80">
-        <v>0.04376386112376063</v>
+        <v>0.02813657601371671</v>
       </c>
       <c r="E80">
-        <v>0.00424732854509834</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06232441589461473</v>
+      </c>
+      <c r="F80">
+        <v>0.0004067296319542843</v>
+      </c>
+      <c r="G80">
+        <v>-0.0305141382451062</v>
+      </c>
+      <c r="H80">
+        <v>0.08504035036247862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1043198764433638</v>
+        <v>0.03726419998707665</v>
       </c>
       <c r="C81">
-        <v>0.1385772126654883</v>
+        <v>0.1582021875239372</v>
       </c>
       <c r="D81">
-        <v>-0.08110193602367576</v>
+        <v>-0.07519979238038448</v>
       </c>
       <c r="E81">
-        <v>-0.005923023376229465</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06391025201652624</v>
+      </c>
+      <c r="F81">
+        <v>-0.05122947279463801</v>
+      </c>
+      <c r="G81">
+        <v>-0.07159383182488466</v>
+      </c>
+      <c r="H81">
+        <v>-0.005910181783835609</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2133449084244958</v>
+        <v>0.082795825672782</v>
       </c>
       <c r="C82">
-        <v>0.3102879460374126</v>
+        <v>0.2983020226694536</v>
       </c>
       <c r="D82">
-        <v>-0.09325168467958846</v>
+        <v>-0.2160336710032323</v>
       </c>
       <c r="E82">
-        <v>-0.228997637871574</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.1050427059436974</v>
+      </c>
+      <c r="F82">
+        <v>0.1260857720099947</v>
+      </c>
+      <c r="G82">
+        <v>-0.1430339772801021</v>
+      </c>
+      <c r="H82">
+        <v>-0.009339795419318411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01030520773275216</v>
+        <v>-0.007164843018819282</v>
       </c>
       <c r="C83">
-        <v>0.04985548165486703</v>
+        <v>0.01899795200261268</v>
       </c>
       <c r="D83">
-        <v>0.01293705113735295</v>
+        <v>0.02725619473290694</v>
       </c>
       <c r="E83">
-        <v>0.04678302746498294</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09290534979709758</v>
+      </c>
+      <c r="F83">
+        <v>-0.07977379017844459</v>
+      </c>
+      <c r="G83">
+        <v>-0.3102102302702694</v>
+      </c>
+      <c r="H83">
+        <v>0.8807423754759292</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0006742426017571724</v>
+        <v>-0.003868312947053383</v>
       </c>
       <c r="C84">
-        <v>0.002435080654229078</v>
+        <v>0.0172576607595113</v>
       </c>
       <c r="D84">
-        <v>0.007403228683500215</v>
+        <v>0.04252910085520294</v>
       </c>
       <c r="E84">
-        <v>-0.002031234201542966</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01453980038516509</v>
+      </c>
+      <c r="F84">
+        <v>-0.02810914109194848</v>
+      </c>
+      <c r="G84">
+        <v>-0.05157619979362688</v>
+      </c>
+      <c r="H84">
+        <v>-0.06127692532515961</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1304653258296656</v>
+        <v>0.05694825077390946</v>
       </c>
       <c r="C85">
-        <v>0.1515933291631563</v>
+        <v>0.1761642064733019</v>
       </c>
       <c r="D85">
-        <v>-0.08535411013470727</v>
+        <v>-0.1133765788369481</v>
       </c>
       <c r="E85">
-        <v>0.002416555186183773</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.02344999580222469</v>
+      </c>
+      <c r="F85">
+        <v>-0.05946973341126494</v>
+      </c>
+      <c r="G85">
+        <v>-0.01988393799024569</v>
+      </c>
+      <c r="H85">
+        <v>-0.02292964575898084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02390121757313357</v>
+        <v>0.01726368058862722</v>
       </c>
       <c r="C86">
-        <v>0.008632634319775994</v>
+        <v>0.04080291966841536</v>
       </c>
       <c r="D86">
-        <v>0.1085682645281575</v>
+        <v>0.1111711829142019</v>
       </c>
       <c r="E86">
-        <v>0.05692322024179126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.001734676343042759</v>
+      </c>
+      <c r="F86">
+        <v>-0.0230966634515728</v>
+      </c>
+      <c r="G86">
+        <v>0.01276278916484967</v>
+      </c>
+      <c r="H86">
+        <v>-0.02326640621215191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02441654623777391</v>
+        <v>0.01261207425013741</v>
       </c>
       <c r="C87">
-        <v>0.03402984061715445</v>
+        <v>0.06831223953140286</v>
       </c>
       <c r="D87">
-        <v>0.135109493758385</v>
+        <v>0.1285228250217649</v>
       </c>
       <c r="E87">
-        <v>0.09710414836629208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05067261808015648</v>
+      </c>
+      <c r="F87">
+        <v>-0.04488887978483014</v>
+      </c>
+      <c r="G87">
+        <v>-0.08297105345067289</v>
+      </c>
+      <c r="H87">
+        <v>-0.002130444035719959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.04501524193144724</v>
+        <v>0.03343843086963266</v>
       </c>
       <c r="C88">
-        <v>0.04884271678100348</v>
+        <v>0.07070442137156277</v>
       </c>
       <c r="D88">
-        <v>0.0009078564843949784</v>
+        <v>0.01168309815040283</v>
       </c>
       <c r="E88">
-        <v>0.02330422610735316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.03262788644252756</v>
+      </c>
+      <c r="F88">
+        <v>-0.02241618179900267</v>
+      </c>
+      <c r="G88">
+        <v>0.01108481253286282</v>
+      </c>
+      <c r="H88">
+        <v>-0.01659397460602202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3445643564027702</v>
+        <v>0.3970287572033773</v>
       </c>
       <c r="C89">
-        <v>-0.2967369996824658</v>
+        <v>-0.1634492190843227</v>
       </c>
       <c r="D89">
-        <v>0.02713331820230709</v>
+        <v>0.05488739072152009</v>
       </c>
       <c r="E89">
-        <v>0.1124408270235766</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03442462243899821</v>
+      </c>
+      <c r="F89">
+        <v>-0.06682492175717357</v>
+      </c>
+      <c r="G89">
+        <v>-0.09373907256011139</v>
+      </c>
+      <c r="H89">
+        <v>0.08179040615010151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2746878645709526</v>
+        <v>0.3219929150696816</v>
       </c>
       <c r="C90">
-        <v>-0.2191007255630391</v>
+        <v>-0.1070188867145811</v>
       </c>
       <c r="D90">
-        <v>0.05813490408341215</v>
+        <v>0.03231495924648081</v>
       </c>
       <c r="E90">
-        <v>0.00363361025964931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.0007814786898290299</v>
+      </c>
+      <c r="F90">
+        <v>0.01027874789890823</v>
+      </c>
+      <c r="G90">
+        <v>-0.05845234045317718</v>
+      </c>
+      <c r="H90">
+        <v>-0.002255751326503216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1361051260694186</v>
+        <v>0.06714030876344614</v>
       </c>
       <c r="C91">
-        <v>0.1997980324766175</v>
+        <v>0.2023613373105786</v>
       </c>
       <c r="D91">
-        <v>-0.09090579023927609</v>
+        <v>-0.09997610793977127</v>
       </c>
       <c r="E91">
-        <v>0.03631801592554839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08272912608317816</v>
+      </c>
+      <c r="F91">
+        <v>-0.05982885018353064</v>
+      </c>
+      <c r="G91">
+        <v>-0.01426557448411355</v>
+      </c>
+      <c r="H91">
+        <v>0.01720047574172851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2572983335047569</v>
+        <v>0.3354046522586134</v>
       </c>
       <c r="C92">
-        <v>-0.245713478515999</v>
+        <v>-0.1502154564626773</v>
       </c>
       <c r="D92">
-        <v>-0.04957973742637493</v>
+        <v>0.02024456700223155</v>
       </c>
       <c r="E92">
-        <v>0.01780910671546582</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06738965913088592</v>
+      </c>
+      <c r="F92">
+        <v>-0.03708836246474848</v>
+      </c>
+      <c r="G92">
+        <v>0.01070482277473255</v>
+      </c>
+      <c r="H92">
+        <v>-0.1343273876756178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2935448426008987</v>
+        <v>0.3288976538714556</v>
       </c>
       <c r="C93">
-        <v>-0.2272917277458771</v>
+        <v>-0.1218782195538059</v>
       </c>
       <c r="D93">
-        <v>-0.02396533490725768</v>
+        <v>-0.02579550904927234</v>
       </c>
       <c r="E93">
-        <v>-0.01122274661064648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01208801027348451</v>
+      </c>
+      <c r="F93">
+        <v>-0.008898070748422242</v>
+      </c>
+      <c r="G93">
+        <v>0.02912508453284689</v>
+      </c>
+      <c r="H93">
+        <v>-0.02703847972543151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2526558427638743</v>
+        <v>0.1214264429569788</v>
       </c>
       <c r="C94">
-        <v>0.2834364431775538</v>
+        <v>0.3211639803434004</v>
       </c>
       <c r="D94">
-        <v>-0.2017264506257109</v>
+        <v>-0.3501062443191049</v>
       </c>
       <c r="E94">
-        <v>-0.3176644430457563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1337805586546763</v>
+      </c>
+      <c r="F94">
+        <v>0.1608066081712471</v>
+      </c>
+      <c r="G94">
+        <v>-0.2835208881582628</v>
+      </c>
+      <c r="H94">
+        <v>-0.108391023583523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01165035032275097</v>
+        <v>0.01827318192404378</v>
       </c>
       <c r="C95">
-        <v>0.04751572992131851</v>
+        <v>0.07488849487201985</v>
       </c>
       <c r="D95">
-        <v>0.111391147458197</v>
+        <v>0.1372851239553304</v>
       </c>
       <c r="E95">
-        <v>0.0693707793700316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0906300203507642</v>
+      </c>
+      <c r="F95">
+        <v>0.03100297943803952</v>
+      </c>
+      <c r="G95">
+        <v>0.06731804289340454</v>
+      </c>
+      <c r="H95">
+        <v>-0.04401770092349148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002627957683589561</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001008075720745086</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0003074665365661102</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003853099599373069</v>
+      </c>
+      <c r="F97">
+        <v>-0.001153595740440297</v>
+      </c>
+      <c r="G97">
+        <v>-0.001244270751350857</v>
+      </c>
+      <c r="H97">
+        <v>-0.005875587121315819</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1474949015607588</v>
+        <v>0.135339101978938</v>
       </c>
       <c r="C98">
-        <v>0.09973805047825919</v>
+        <v>0.1624426062070737</v>
       </c>
       <c r="D98">
-        <v>0.1319615830258276</v>
+        <v>0.01998024188502852</v>
       </c>
       <c r="E98">
-        <v>-0.1115764958422125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1880627047322033</v>
+      </c>
+      <c r="F98">
+        <v>0.2371640670611235</v>
+      </c>
+      <c r="G98">
+        <v>0.2971149352789125</v>
+      </c>
+      <c r="H98">
+        <v>0.1410741189981632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.002333121103148248</v>
+        <v>0.002815186868634905</v>
       </c>
       <c r="C101">
-        <v>0.02020606400131077</v>
+        <v>0.04073116237118325</v>
       </c>
       <c r="D101">
-        <v>0.07142836033815343</v>
+        <v>0.09334555431836962</v>
       </c>
       <c r="E101">
-        <v>0.04799054273677086</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.09879960858413921</v>
+      </c>
+      <c r="F101">
+        <v>-0.03829534929308406</v>
+      </c>
+      <c r="G101">
+        <v>-0.01881967250810776</v>
+      </c>
+      <c r="H101">
+        <v>0.03800148142552464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09049521983063812</v>
+        <v>0.02270363412711582</v>
       </c>
       <c r="C102">
-        <v>0.1660225183387172</v>
+        <v>0.1383102195948416</v>
       </c>
       <c r="D102">
-        <v>-0.01111640749744436</v>
+        <v>-0.09474268665948499</v>
       </c>
       <c r="E102">
-        <v>-0.1009583075903749</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.05804466277404251</v>
+      </c>
+      <c r="F102">
+        <v>0.08511829292656123</v>
+      </c>
+      <c r="G102">
+        <v>-0.01170938099246448</v>
+      </c>
+      <c r="H102">
+        <v>0.02166941721578574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
